--- a/Projects/PEM_Spring/PEM Requirement Analysis/PEM Requriment.xlsx
+++ b/Projects/PEM_Spring/PEM Requirement Analysis/PEM Requriment.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="BRD Web Application for PEM" sheetId="1" r:id="rId1"/>
     <sheet name="DFD Flow" sheetId="2" r:id="rId2"/>
-    <sheet name="class diagram" sheetId="3" r:id="rId3"/>
-    <sheet name="DB" sheetId="4" r:id="rId4"/>
+    <sheet name="DB" sheetId="4" r:id="rId3"/>
+    <sheet name="class diagram" sheetId="3" r:id="rId4"/>
     <sheet name="Architecture" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">Table : Users                                                                              </t>
   </si>
   <si>
-    <t xml:space="preserve">Table : Category                                                     </t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -146,15 +143,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>loginName</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>cat_id</t>
   </si>
   <si>
@@ -180,13 +168,52 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>Delete Expense</t>
+  </si>
+  <si>
+    <t>Expense will be deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table : Category                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>Software Requirement</t>
+  </si>
+  <si>
+    <t>core java</t>
+  </si>
+  <si>
+    <t>Adv Java</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>Servlet</t>
+  </si>
+  <si>
+    <t>Spring IOC</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>Spring JDBC</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +224,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -259,11 +294,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -275,6 +347,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,20 +458,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>731</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -414,8 +491,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1838325" y="381731"/>
-          <a:ext cx="7000875" cy="4323619"/>
+          <a:off x="1238250" y="200026"/>
+          <a:ext cx="7896225" cy="4581524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,10 +1017,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
@@ -957,10 +1034,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
@@ -974,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
@@ -985,6 +1062,99 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="13" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1009,25 +1179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,13 +1205,13 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="I3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1092,70 +1247,70 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="K6" s="1">
         <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>50</v>
@@ -1163,191 +1318,152 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1">
-        <v>150</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B11:F11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
